--- a/Example Simulator Layout2.xlsx
+++ b/Example Simulator Layout2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sawtoothsoftware-my.sharepoint.com/personal/kenneth_sawtoothsoftware_com/Documents/GitHub/ExcelSimulator/Build Simulator Example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sawtoothsoftware-my.sharepoint.com/personal/kenneth_sawtoothsoftware_com/Documents/GitHub/ExcelSimulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{D0C47E4A-F7C2-44AF-9EF0-46C902893357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8874BBF-A27E-4C50-9C3E-FDD21A196D8E}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{D0C47E4A-F7C2-44AF-9EF0-46C902893357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD364507-130C-44AF-A963-DF0B97183B01}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>ON or OFF</t>
-  </si>
-  <si>
     <t>PREFERENCE SHARES</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>INCLUDE or EXCLUDE</t>
   </si>
 </sst>
 </file>
@@ -970,6 +970,7 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="20" fillId="35" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,7 +990,6 @@
     <xf numFmtId="164" fontId="20" fillId="35" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1413,20 +1413,20 @@
     <row r="3" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="39"/>
+      <c r="I3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="40"/>
       <c r="K3" s="6"/>
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
@@ -1442,25 +1442,25 @@
     <row r="4" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="40">
+      <c r="C4" s="33">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>31</v>
+      <c r="D4" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="40">
+      <c r="F4" s="33">
         <v>1</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>31</v>
+      <c r="G4" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="40">
+      <c r="I4" s="33">
         <v>1</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>31</v>
+      <c r="J4" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4"/>
@@ -1477,25 +1477,25 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="40">
+      <c r="C5" s="33">
         <v>2</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>31</v>
+      <c r="D5" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="40">
+      <c r="F5" s="33">
         <v>2</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>31</v>
+      <c r="G5" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="40">
+      <c r="I5" s="33">
         <v>2</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>31</v>
+      <c r="J5" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="4"/>
@@ -1512,25 +1512,25 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="40">
+      <c r="C6" s="33">
         <v>3</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>31</v>
+      <c r="D6" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="40">
+      <c r="F6" s="33">
         <v>3</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>31</v>
+      <c r="G6" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="40">
+      <c r="I6" s="33">
         <v>3</v>
       </c>
-      <c r="J6" s="40" t="s">
-        <v>31</v>
+      <c r="J6" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="4"/>
@@ -1557,25 +1557,25 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="40">
+      <c r="C7" s="33">
         <v>4</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>31</v>
+      <c r="D7" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="40">
+      <c r="F7" s="33">
         <v>4</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>31</v>
+      <c r="G7" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="40">
+      <c r="I7" s="33">
         <v>4</v>
       </c>
-      <c r="J7" s="40" t="s">
-        <v>31</v>
+      <c r="J7" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -1608,11 +1608,11 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="40">
+      <c r="I8" s="33">
         <v>5</v>
       </c>
-      <c r="J8" s="40" t="s">
-        <v>31</v>
+      <c r="J8" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
@@ -1629,10 +1629,10 @@
     <row r="9" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="39"/>
+      <c r="C9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="40"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1654,11 +1654,11 @@
     <row r="10" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="40">
+      <c r="C10" s="33">
         <v>1</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>31</v>
+      <c r="D10" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1681,11 +1681,11 @@
     <row r="11" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="40">
+      <c r="C11" s="33">
         <v>2</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>31</v>
+      <c r="D11" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1731,15 +1731,15 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="5"/>
@@ -1772,19 +1772,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="H14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="29" t="s">
         <v>17</v>
@@ -1818,25 +1818,25 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1867,14 +1867,14 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="36" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="6"/>
@@ -1906,14 +1906,14 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="5"/>
@@ -1931,14 +1931,14 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="5"/>
@@ -2002,16 +2002,16 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="C20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2030,14 +2030,14 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2058,25 +2058,25 @@
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
       <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="H24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -2084,28 +2084,28 @@
       <c r="A25" s="6"/>
       <c r="B25" s="21"/>
       <c r="C25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="E25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="24"/>
